--- a/trunk/FormPembagianTugas.xlsx
+++ b/trunk/FormPembagianTugas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Aplikasi" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>No</t>
   </si>
@@ -248,22 +248,10 @@
     <t>Mengisi database sebagai data awal</t>
   </si>
   <si>
-    <t>Database dan Web Server</t>
-  </si>
-  <si>
     <t>Menginstall IIS</t>
   </si>
   <si>
     <t>Mengkonfigurasi IIS dengan project dan database</t>
-  </si>
-  <si>
-    <t>Mendesain CDM, PDM, SQL</t>
-  </si>
-  <si>
-    <t>Menyetting dan memasang mySQL ke komputer server yang ditentukan</t>
-  </si>
-  <si>
-    <t>Mengimplementasi SQL syntax ke server</t>
   </si>
   <si>
     <t>Start Server</t>
@@ -679,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,37 +691,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,19 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,12 +732,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -794,12 +742,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -810,16 +752,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,11 +769,59 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,13 +1143,13 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1176,8 +1160,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1186,8 +1170,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1196,18 +1180,18 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1216,8 +1200,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1226,28 +1210,28 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1256,8 +1240,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1266,8 +1250,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1276,8 +1260,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1286,10 +1270,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10">
+      <c r="A14" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1300,8 +1284,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1310,8 +1294,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1320,9 +1304,9 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1330,9 +1314,9 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1340,10 +1324,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1354,8 +1338,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1364,8 +1348,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1374,8 +1358,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1384,8 +1368,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1394,8 +1378,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1404,8 +1388,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1414,8 +1398,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1424,8 +1408,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
@@ -1434,18 +1418,18 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1454,8 +1438,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
@@ -1464,10 +1448,10 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="43">
         <v>4</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1478,8 +1462,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1488,8 +1472,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
@@ -1498,140 +1482,74 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10">
+      <c r="A34" s="59">
         <v>5</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>77</v>
+      <c r="B34" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="57"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="57"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="60"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>13</v>
+      <c r="D37" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>13</v>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="20">
-        <v>6</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="C45" s="14" t="s">
-        <v>160</v>
+      <c r="C39" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
+  <mergeCells count="10">
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -1642,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1665,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1687,707 +1605,707 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="26">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>143</v>
+      <c r="B2" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="32">
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="40">
         <v>0.1</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="60">
+      <c r="I11" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="56">
+        <v>2</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="41">
         <v>0.1</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="7" t="s">
+      <c r="I12" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="57"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="57"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="7" t="s">
+      <c r="G15" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="F16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="20">
         <v>0.1</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="I16" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="57"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="20">
         <v>0.1</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="38">
-        <v>2</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40" t="s">
+      <c r="I17" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="57"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="59">
+      <c r="G18" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="20">
         <v>0.1</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45">
-      <c r="A13" s="16"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="I18" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A19" s="58"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="48">
+        <v>3</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="16"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="16"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="16"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="16"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="16"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="28">
-        <v>3</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="32">
+        <v>149</v>
+      </c>
+      <c r="H23" s="20">
         <v>0.5</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="61" t="s">
-        <v>169</v>
+      <c r="I24" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="35" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="49">
+      <c r="A26" s="51">
         <v>4</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="29" spans="1:9">
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A19"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/FormPembagianTugas.xlsx
+++ b/trunk/FormPembagianTugas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="6915"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Aplikasi" sheetId="1" r:id="rId1"/>
@@ -539,12 +539,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -667,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,7 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,15 +775,42 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,38 +822,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1167,7 @@
       <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1161,7 +1179,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1199,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1191,7 +1209,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1219,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1229,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
@@ -1221,7 +1239,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1231,7 +1249,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1251,7 +1269,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1291,7 @@
       <c r="A14" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1285,7 +1303,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1313,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1323,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1333,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1345,7 @@
       <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1339,7 +1357,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1367,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1377,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1387,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1379,7 +1397,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1389,7 +1407,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1399,7 +1417,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1409,7 +1427,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
@@ -1419,7 +1437,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1429,7 +1447,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1457,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
@@ -1451,7 +1469,7 @@
       <c r="A31" s="43">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1463,7 +1481,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
@@ -1482,10 +1500,10 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="59">
+      <c r="A34" s="44">
         <v>5</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1496,8 +1514,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="57"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="13" t="s">
         <v>81</v>
       </c>
@@ -1506,8 +1524,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="57"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
@@ -1516,8 +1534,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="60"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="13" t="s">
         <v>82</v>
       </c>
@@ -1540,16 +1558,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="A19:A30"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -1560,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1605,10 +1623,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="50">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1634,8 +1652,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="7" t="s">
         <v>88</v>
       </c>
@@ -1651,7 +1669,7 @@
       <c r="G3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>0.1</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1659,8 +1677,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
@@ -1684,8 +1702,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>90</v>
       </c>
@@ -1709,8 +1727,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
@@ -1734,8 +1752,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7" t="s">
         <v>103</v>
       </c>
@@ -1759,8 +1777,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
@@ -1784,8 +1802,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7" t="s">
         <v>92</v>
       </c>
@@ -1809,8 +1827,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7" t="s">
         <v>107</v>
       </c>
@@ -1834,8 +1852,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="21" t="s">
         <v>93</v>
       </c>
@@ -1851,7 +1869,7 @@
       <c r="G11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <v>0.1</v>
       </c>
       <c r="I11" s="21" t="s">
@@ -1859,13 +1877,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="56">
+      <c r="A12" s="52">
         <v>2</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="61" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -1878,7 +1896,7 @@
       <c r="G12" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="40">
         <v>0.1</v>
       </c>
       <c r="I12" s="26" t="s">
@@ -1886,9 +1904,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
-      <c r="A13" s="57"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1911,8 +1929,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="57"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="7" t="s">
         <v>123</v>
       </c>
@@ -1936,9 +1954,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="57"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="60" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1961,8 +1979,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="57"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="7" t="s">
         <v>125</v>
       </c>
@@ -1986,8 +2004,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="57"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="7" t="s">
         <v>126</v>
       </c>
@@ -2011,9 +2029,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="57"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="60" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2036,9 +2054,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="66" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -2053,7 +2071,7 @@
       <c r="G19" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>0.1</v>
       </c>
       <c r="I19" s="30" t="s">
@@ -2061,10 +2079,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="48">
+      <c r="A20" s="56">
         <v>3</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="56" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -2076,7 +2094,7 @@
       <c r="E20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="62" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2090,8 +2108,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="17" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2119,7 @@
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="63" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2115,8 +2133,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2126,7 +2144,7 @@
       <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="63" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2140,8 +2158,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2165,8 +2183,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="17" t="s">
         <v>13</v>
       </c>
@@ -2176,7 +2194,7 @@
       <c r="E24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="63" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2185,13 +2203,13 @@
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="22" t="s">
         <v>13</v>
       </c>
@@ -2201,7 +2219,7 @@
       <c r="E25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="65" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="23" t="s">
@@ -2210,13 +2228,13 @@
       <c r="H25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="51">
+      <c r="A26" s="58">
         <v>4</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2228,7 +2246,7 @@
       <c r="E26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="64" t="s">
         <v>146</v>
       </c>
       <c r="G26" s="29" t="s">
@@ -2242,8 +2260,8 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="19" t="s">
         <v>144</v>
       </c>
@@ -2253,7 +2271,7 @@
       <c r="E27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="63" t="s">
         <v>147</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -2267,24 +2285,24 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="36" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="38" t="s">
+      <c r="D28" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>148</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="38">
         <v>0.6</v>
       </c>
       <c r="I28" s="32" t="s">
@@ -2297,6 +2315,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="A2:A11"/>
@@ -2304,8 +2324,6 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/FormPembagianTugas.xlsx
+++ b/trunk/FormPembagianTugas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="14295" windowHeight="6915" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="168">
   <si>
     <t>No</t>
   </si>
@@ -516,13 +516,16 @@
   </si>
   <si>
     <t>tinggal verifikasi dan testing ke web</t>
+  </si>
+  <si>
+    <t>Tinggal Diverifikasi,dan mekanisme edit problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,60 +783,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -841,12 +796,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -925,6 +942,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -959,6 +977,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,21 +1153,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1163,11 +1182,11 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="43">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1177,9 +1196,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="43"/>
-      <c r="B3" s="42"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1187,9 +1206,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="42"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1197,9 +1216,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1207,9 +1226,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="42"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1217,9 +1236,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="42"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1227,9 +1246,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
@@ -1237,9 +1256,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1247,9 +1266,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1257,9 +1276,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1267,9 +1286,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="43"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1277,9 +1296,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1287,11 +1306,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="43">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>2</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1301,9 +1320,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1311,9 +1330,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1321,9 +1340,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1331,9 +1350,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
@@ -1341,11 +1360,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="43">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
         <v>3</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1355,9 +1374,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1365,9 +1384,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1375,9 +1394,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1385,9 +1404,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1395,9 +1414,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="42"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1405,9 +1424,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="42"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1415,9 +1434,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="42"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1425,9 +1444,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="42"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
@@ -1435,9 +1454,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="43"/>
-      <c r="B28" s="42"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1445,9 +1464,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="43"/>
-      <c r="B29" s="42"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1455,9 +1474,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="43"/>
-      <c r="B30" s="42"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
@@ -1465,11 +1484,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="43">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="54">
         <v>4</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="53" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1479,9 +1498,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="43"/>
-      <c r="B32" s="47"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1489,9 +1508,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="43"/>
-      <c r="B33" s="47"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
@@ -1499,11 +1518,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="44">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="50">
         <v>5</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1513,9 +1532,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="13" t="s">
         <v>81</v>
       </c>
@@ -1523,9 +1542,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
@@ -1533,9 +1552,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="42"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="13" t="s">
         <v>82</v>
       </c>
@@ -1543,7 +1562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>17</v>
       </c>
@@ -1551,23 +1570,23 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A19:A30"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A19:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -1575,14 +1594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -1593,7 +1612,7 @@
     <col min="9" max="9" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,11 +1641,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="48">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="58" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1651,9 +1670,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="7" t="s">
         <v>88</v>
       </c>
@@ -1676,9 +1695,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
@@ -1701,9 +1720,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="7" t="s">
         <v>90</v>
       </c>
@@ -1726,9 +1745,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
@@ -1751,9 +1770,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="7" t="s">
         <v>103</v>
       </c>
@@ -1776,9 +1795,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
@@ -1801,10 +1820,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1820,15 +1839,15 @@
         <v>157</v>
       </c>
       <c r="H9" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="7" t="s">
         <v>107</v>
       </c>
@@ -1851,9 +1870,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+    <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="21" t="s">
         <v>93</v>
       </c>
@@ -1876,14 +1895,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="52">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
         <v>2</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="43" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -1903,10 +1922,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="60" t="s">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="42" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1928,10 +1947,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="45"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="67" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1953,10 +1972,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="45"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="60" t="s">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="42" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1978,10 +1997,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" s="45"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="67" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2003,10 +2022,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="67" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -2028,10 +2047,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="45"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="60" t="s">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2053,10 +2072,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="66" t="s">
+    <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="48" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -2078,11 +2097,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="56">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="66">
         <v>3</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="66" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -2094,7 +2113,7 @@
       <c r="E20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="44" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2107,9 +2126,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="17" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2138,7 @@
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="45" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2132,9 +2151,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2144,7 +2163,7 @@
       <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="45" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2157,9 +2176,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2182,9 +2201,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
+    <row r="24" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="17" t="s">
         <v>13</v>
       </c>
@@ -2194,7 +2213,7 @@
       <c r="E24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="45" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2203,13 +2222,13 @@
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="54" t="s">
+      <c r="I24" s="64" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
+    <row r="25" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="22" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2238,7 @@
       <c r="E25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="47" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="23" t="s">
@@ -2228,13 +2247,13 @@
       <c r="H25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="58">
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
         <v>4</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2246,7 +2265,7 @@
       <c r="E26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="46" t="s">
         <v>146</v>
       </c>
       <c r="G26" s="29" t="s">
@@ -2259,9 +2278,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="19" t="s">
         <v>144</v>
       </c>
@@ -2271,7 +2290,7 @@
       <c r="E27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="45" t="s">
         <v>147</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -2284,9 +2303,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="35" t="s">
         <v>145</v>
       </c>
@@ -2309,21 +2328,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A19"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
